--- a/normativa/Anexos/L01T03C08/L01T03C08A01.xlsx
+++ b/normativa/Anexos/L01T03C08/L01T03C08A01.xlsx
@@ -763,6 +763,171 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Nota:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">La información reportada en el presente Anexo, conlleva el carácter de declaración jurada de las personas que lo suscriben, para todos los efectos, de conformidad con el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Artículo 1322º del Código Civil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> y el Parágrafo IV, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Artículo 157° del Código Procesal Civil,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sujetas en caso de inexactitud o falsedad a las penalidades establecidas en el Artículo 169° del Código Penal como falso testimonio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nota:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">La información reportada en el presente Anexo, conlleva el carácter de declaración jurada de las personas que lo suscriben, para todos los efectos, de conformidad con el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Artículo 1322º del Código Civil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> y el parágrafo IV del </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Artículo 157° del Código Procesal Civil,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sujetas en caso de inexactitud o falsedad a las penalidades establecidas en el Artículo 169° del Código Penal como falso testimonio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nota:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">La información reportada en el presente Anexo, conlleva el carácter de declaración jurada de las personas que lo suscriben, para todos los efectos, de conformidad con el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Artículo 1322º del Código Civil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> y el Parágrafo IV del </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Artículo157° del Código Procesal Civil,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sujetas en caso de inexactitud o falsedad a las penalidades establecidas en el Artículo 169° del Código Penal como falso testimonio.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   Departamento y Municipio:</t>
+  </si>
+  <si>
+    <t>OPERACIONES Y SERVICIOS FINANCIEROS A SER OFRECIDOS</t>
+  </si>
+  <si>
+    <t>(*)  En el caso de instalación de sucursales en municipios con nula cobertura, la sección referida a "justificación económico financiera" tiene un carácter más informativo que una justificación.</t>
+  </si>
+  <si>
+    <r>
+      <t>JUSTIFICACIÓN ECONÓMICO FINANCIERA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(*)  </t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <i/>
         <vertAlign val="superscript"/>
@@ -779,172 +944,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red Supernet.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nota:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">La información reportada en el presente Anexo, conlleva el carácter de declaración jurada de las personas que lo suscriben, para todos los efectos, de conformidad con el </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Artículo 1322º del Código Civil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> y el Parágrafo IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Artículo 157° del Código Procesal Civil,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> sujetas en caso de inexactitud o falsedad a las penalidades establecidas en el Artículo 169° del Código Penal como falso testimonio.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nota:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">La información reportada en el presente Anexo, conlleva el carácter de declaración jurada de las personas que lo suscriben, para todos los efectos, de conformidad con el </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Artículo 1322º del Código Civil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> y el parágrafo IV del </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Artículo 157° del Código Procesal Civil,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> sujetas en caso de inexactitud o falsedad a las penalidades establecidas en el Artículo 169° del Código Penal como falso testimonio.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nota:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">La información reportada en el presente Anexo, conlleva el carácter de declaración jurada de las personas que lo suscriben, para todos los efectos, de conformidad con el </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Artículo 1322º del Código Civil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> y el Parágrafo IV del </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Artículo157° del Código Procesal Civil,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> sujetas en caso de inexactitud o falsedad a las penalidades establecidas en el Artículo 169° del Código Penal como falso testimonio.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">   Departamento y Municipio:</t>
-  </si>
-  <si>
-    <t>OPERACIONES Y SERVICIOS FINANCIEROS A SER OFRECIDOS</t>
-  </si>
-  <si>
-    <t>(*)  En el caso de instalación de sucursales en municipios con nula cobertura, la sección referida a "justificación económico financiera" tiene un carácter más informativo que una justificación.</t>
-  </si>
-  <si>
-    <r>
-      <t>JUSTIFICACIÓN ECONÓMICO FINANCIERA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">(*)  </t>
+      <t>De acuerdo al "Manual de Georeferenciación de Puntos de Atención Financiera", disponible en el sitio web de la Red ASFINet.</t>
     </r>
   </si>
 </sst>
@@ -1540,174 +1540,174 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1927,7 +1927,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2215,11 +2215,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y182"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A124" zoomScale="59" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="59" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
@@ -2256,16 +2256,16 @@
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -2285,16 +2285,16 @@
       <c r="Y2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -2314,11 +2314,11 @@
     </row>
     <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="3"/>
@@ -2339,15 +2339,15 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="42"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2393,15 +2393,15 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
       <c r="H7" s="9"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -2421,15 +2421,15 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
       <c r="H8" s="9"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -2449,15 +2449,15 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
       <c r="H9" s="9"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2503,10 +2503,10 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="141"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
@@ -2523,15 +2523,15 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="141"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="105"/>
       <c r="H12" s="9"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2543,15 +2543,15 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="109"/>
+      <c r="A13" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="107"/>
       <c r="H13" s="9"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2563,15 +2563,15 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="109"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="107"/>
       <c r="H14" s="9"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2583,15 +2583,15 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="109"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="107"/>
       <c r="H15" s="9"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2603,15 +2603,15 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="109"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="107"/>
       <c r="H16" s="9"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2623,15 +2623,15 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="109"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="107"/>
       <c r="H17" s="9"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2643,15 +2643,15 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="109"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="107"/>
       <c r="H18" s="9"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2663,39 +2663,39 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="137" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
+      <c r="A19" s="131" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:16" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
       <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
       <c r="H21" s="9"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2725,11 +2725,11 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="139" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="140"/>
-      <c r="C23" s="141"/>
+      <c r="A23" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="109"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -2767,15 +2767,15 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="108" t="s">
+      <c r="A25" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="109"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="107"/>
       <c r="H25" s="9"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2789,15 +2789,15 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="109"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="107"/>
       <c r="H26" s="9"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2809,15 +2809,15 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="109"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="107"/>
       <c r="H27" s="9"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2829,17 +2829,17 @@
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="108" t="s">
+      <c r="B28" s="107"/>
+      <c r="C28" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="109"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="107"/>
       <c r="H28" s="9"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2873,15 +2873,15 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="109"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="107"/>
       <c r="H30" s="9"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2893,15 +2893,15 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="108" t="s">
+      <c r="A31" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="109"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="107"/>
       <c r="H31" s="9"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2913,15 +2913,15 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="108" t="s">
+      <c r="A32" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="109"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="109"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="107"/>
       <c r="H32" s="9"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2933,17 +2933,17 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="108" t="s">
+      <c r="B33" s="107"/>
+      <c r="C33" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="109"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="107"/>
       <c r="H33" s="9"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2979,15 +2979,15 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="109"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="107"/>
       <c r="H35" s="9"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2999,15 +2999,15 @@
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="109"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="107"/>
       <c r="H36" s="9"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3019,15 +3019,15 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="108" t="s">
+      <c r="A37" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="109"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="107"/>
       <c r="H37" s="9"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3039,17 +3039,17 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="108" t="s">
+      <c r="A38" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="109"/>
-      <c r="C38" s="108" t="s">
+      <c r="B38" s="107"/>
+      <c r="C38" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="109"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="107"/>
       <c r="H38" s="9"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -3061,13 +3061,13 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="150"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
       <c r="H39" s="9"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -3099,15 +3099,15 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="153" t="s">
+      <c r="A41" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="154"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="155"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="116"/>
       <c r="H41" s="9"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3147,10 +3147,10 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="127" t="s">
+      <c r="A43" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="129"/>
+      <c r="B43" s="113"/>
       <c r="C43" s="49"/>
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
@@ -3167,10 +3167,10 @@
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="129"/>
+      <c r="B44" s="113"/>
       <c r="C44" s="49"/>
       <c r="D44" s="49"/>
       <c r="E44" s="49"/>
@@ -3187,14 +3187,14 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="136" t="s">
+      <c r="A45" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="2"/>
@@ -3241,12 +3241,12 @@
       <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="127" t="s">
+      <c r="A49" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="128"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="129"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="113"/>
       <c r="E49" s="16"/>
       <c r="F49" s="52"/>
       <c r="G49" s="15"/>
@@ -3452,26 +3452,26 @@
       <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="136" t="s">
+      <c r="A65" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="136"/>
-      <c r="C65" s="136"/>
-      <c r="D65" s="136"/>
-      <c r="E65" s="136"/>
-      <c r="F65" s="136"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="136" t="s">
+      <c r="A66" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="136"/>
-      <c r="C66" s="136"/>
-      <c r="D66" s="136"/>
-      <c r="E66" s="136"/>
-      <c r="F66" s="136"/>
+      <c r="B66" s="118"/>
+      <c r="C66" s="118"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="118"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
@@ -3519,70 +3519,70 @@
       <c r="K70" s="55"/>
     </row>
     <row r="71" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="149" t="s">
-        <v>111</v>
-      </c>
-      <c r="B71" s="149"/>
-      <c r="C71" s="149"/>
-      <c r="D71" s="149"/>
-      <c r="E71" s="149"/>
-      <c r="F71" s="149"/>
-      <c r="G71" s="149"/>
+      <c r="A71" s="130" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="130"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="130"/>
+      <c r="G71" s="130"/>
       <c r="H71" s="56"/>
       <c r="I71" s="55"/>
       <c r="J71" s="55"/>
       <c r="K71" s="55"/>
     </row>
     <row r="72" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="149"/>
-      <c r="B72" s="149"/>
-      <c r="C72" s="149"/>
-      <c r="D72" s="149"/>
-      <c r="E72" s="149"/>
-      <c r="F72" s="149"/>
-      <c r="G72" s="149"/>
+      <c r="A72" s="130"/>
+      <c r="B72" s="130"/>
+      <c r="C72" s="130"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="130"/>
+      <c r="G72" s="130"/>
       <c r="H72" s="15"/>
     </row>
     <row r="73" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H73" s="57"/>
     </row>
     <row r="74" spans="1:24" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="144" t="s">
+      <c r="A74" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="144"/>
-      <c r="C74" s="144"/>
-      <c r="D74" s="144"/>
-      <c r="E74" s="144"/>
-      <c r="F74" s="144"/>
-      <c r="G74" s="144"/>
+      <c r="B74" s="123"/>
+      <c r="C74" s="123"/>
+      <c r="D74" s="123"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="123"/>
+      <c r="G74" s="123"/>
       <c r="H74" s="58"/>
       <c r="I74" s="59"/>
       <c r="J74" s="59"/>
       <c r="K74" s="59"/>
     </row>
     <row r="75" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="135" t="s">
+      <c r="A75" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="135"/>
-      <c r="C75" s="135"/>
-      <c r="D75" s="135"/>
-      <c r="E75" s="135"/>
-      <c r="F75" s="135"/>
-      <c r="G75" s="135"/>
+      <c r="B75" s="117"/>
+      <c r="C75" s="117"/>
+      <c r="D75" s="117"/>
+      <c r="E75" s="117"/>
+      <c r="F75" s="117"/>
+      <c r="G75" s="117"/>
       <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="135" t="s">
+      <c r="A76" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="135"/>
-      <c r="C76" s="135"/>
-      <c r="D76" s="135"/>
-      <c r="E76" s="135"/>
-      <c r="F76" s="135"/>
-      <c r="G76" s="135"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="117"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="117"/>
+      <c r="G76" s="117"/>
       <c r="H76" s="9"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -3602,15 +3602,15 @@
       <c r="X76" s="2"/>
     </row>
     <row r="77" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="135" t="s">
+      <c r="A77" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="135"/>
-      <c r="C77" s="135"/>
-      <c r="D77" s="135"/>
-      <c r="E77" s="135"/>
-      <c r="F77" s="135"/>
-      <c r="G77" s="135"/>
+      <c r="B77" s="117"/>
+      <c r="C77" s="117"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="117"/>
+      <c r="G77" s="117"/>
       <c r="H77" s="9"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -3684,13 +3684,13 @@
       <c r="X79" s="2"/>
     </row>
     <row r="80" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="131"/>
-      <c r="B80" s="132"/>
-      <c r="C80" s="132"/>
-      <c r="D80" s="132"/>
-      <c r="E80" s="132"/>
-      <c r="F80" s="132"/>
-      <c r="G80" s="133"/>
+      <c r="A80" s="142"/>
+      <c r="B80" s="143"/>
+      <c r="C80" s="143"/>
+      <c r="D80" s="143"/>
+      <c r="E80" s="143"/>
+      <c r="F80" s="143"/>
+      <c r="G80" s="144"/>
       <c r="H80" s="9"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -3756,15 +3756,15 @@
       <c r="P82" s="2"/>
     </row>
     <row r="83" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="121" t="s">
+      <c r="A83" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="122"/>
-      <c r="C83" s="122"/>
-      <c r="D83" s="122"/>
-      <c r="E83" s="122"/>
-      <c r="F83" s="122"/>
-      <c r="G83" s="123"/>
+      <c r="B83" s="135"/>
+      <c r="C83" s="135"/>
+      <c r="D83" s="135"/>
+      <c r="E83" s="135"/>
+      <c r="F83" s="135"/>
+      <c r="G83" s="136"/>
       <c r="H83" s="9"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -3776,15 +3776,15 @@
       <c r="P83" s="2"/>
     </row>
     <row r="84" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="121" t="s">
+      <c r="A84" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="122"/>
-      <c r="C84" s="122"/>
-      <c r="D84" s="122"/>
-      <c r="E84" s="122"/>
-      <c r="F84" s="122"/>
-      <c r="G84" s="123"/>
+      <c r="B84" s="135"/>
+      <c r="C84" s="135"/>
+      <c r="D84" s="135"/>
+      <c r="E84" s="135"/>
+      <c r="F84" s="135"/>
+      <c r="G84" s="136"/>
       <c r="H84" s="9"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -3796,15 +3796,15 @@
       <c r="P84" s="2"/>
     </row>
     <row r="85" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="121" t="s">
+      <c r="A85" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="122"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
-      <c r="F85" s="122"/>
-      <c r="G85" s="123"/>
+      <c r="B85" s="135"/>
+      <c r="C85" s="135"/>
+      <c r="D85" s="135"/>
+      <c r="E85" s="135"/>
+      <c r="F85" s="135"/>
+      <c r="G85" s="136"/>
       <c r="H85" s="9"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -3816,15 +3816,15 @@
       <c r="P85" s="2"/>
     </row>
     <row r="86" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="121" t="s">
+      <c r="A86" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="122"/>
-      <c r="C86" s="122"/>
-      <c r="D86" s="122"/>
-      <c r="E86" s="122"/>
-      <c r="F86" s="122"/>
-      <c r="G86" s="123"/>
+      <c r="B86" s="135"/>
+      <c r="C86" s="135"/>
+      <c r="D86" s="135"/>
+      <c r="E86" s="135"/>
+      <c r="F86" s="135"/>
+      <c r="G86" s="136"/>
       <c r="H86" s="9"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -3836,15 +3836,15 @@
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="124" t="s">
+      <c r="A87" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B87" s="125"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="125"/>
-      <c r="F87" s="125"/>
-      <c r="G87" s="126"/>
+      <c r="B87" s="138"/>
+      <c r="C87" s="138"/>
+      <c r="D87" s="138"/>
+      <c r="E87" s="138"/>
+      <c r="F87" s="138"/>
+      <c r="G87" s="139"/>
       <c r="H87" s="9"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -3895,10 +3895,10 @@
       <c r="A90" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="148" t="s">
+      <c r="B90" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="C90" s="148"/>
+      <c r="C90" s="129"/>
       <c r="D90" s="64"/>
       <c r="E90" s="64"/>
       <c r="F90" s="15"/>
@@ -3916,8 +3916,8 @@
       <c r="A91" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="148"/>
-      <c r="C91" s="148"/>
+      <c r="B91" s="129"/>
+      <c r="C91" s="129"/>
       <c r="D91" s="64"/>
       <c r="E91" s="64"/>
       <c r="F91" s="15"/>
@@ -3935,8 +3935,8 @@
       <c r="A92" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="148"/>
-      <c r="C92" s="148"/>
+      <c r="B92" s="129"/>
+      <c r="C92" s="129"/>
       <c r="D92" s="64"/>
       <c r="E92" s="64"/>
       <c r="F92" s="15"/>
@@ -3946,8 +3946,8 @@
       <c r="A93" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="148"/>
-      <c r="C93" s="148"/>
+      <c r="B93" s="129"/>
+      <c r="C93" s="129"/>
       <c r="D93" s="64"/>
       <c r="E93" s="64"/>
       <c r="F93" s="15"/>
@@ -3957,8 +3957,8 @@
       <c r="A94" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="148"/>
-      <c r="C94" s="148"/>
+      <c r="B94" s="129"/>
+      <c r="C94" s="129"/>
       <c r="D94" s="64"/>
       <c r="E94" s="64"/>
       <c r="F94" s="15"/>
@@ -3968,8 +3968,8 @@
       <c r="A95" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B95" s="148"/>
-      <c r="C95" s="148"/>
+      <c r="B95" s="129"/>
+      <c r="C95" s="129"/>
       <c r="D95" s="64"/>
       <c r="E95" s="64"/>
       <c r="F95" s="15"/>
@@ -3979,8 +3979,8 @@
       <c r="A96" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="148"/>
-      <c r="C96" s="148"/>
+      <c r="B96" s="129"/>
+      <c r="C96" s="129"/>
       <c r="D96" s="64"/>
       <c r="E96" s="64"/>
       <c r="F96" s="15"/>
@@ -4000,10 +4000,10 @@
       <c r="A98" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="B98" s="106" t="s">
+      <c r="B98" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="107"/>
+      <c r="C98" s="128"/>
       <c r="D98" s="64"/>
       <c r="E98" s="64"/>
       <c r="F98" s="64"/>
@@ -4014,8 +4014,8 @@
       <c r="A99" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="106"/>
-      <c r="C99" s="107"/>
+      <c r="B99" s="127"/>
+      <c r="C99" s="128"/>
       <c r="D99" s="64"/>
       <c r="E99" s="64"/>
       <c r="F99" s="64"/>
@@ -4026,8 +4026,8 @@
       <c r="A100" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="106"/>
-      <c r="C100" s="107"/>
+      <c r="B100" s="127"/>
+      <c r="C100" s="128"/>
       <c r="D100" s="64"/>
       <c r="E100" s="64"/>
       <c r="F100" s="64"/>
@@ -4038,8 +4038,8 @@
       <c r="A101" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B101" s="106"/>
-      <c r="C101" s="107"/>
+      <c r="B101" s="127"/>
+      <c r="C101" s="128"/>
       <c r="D101" s="64"/>
       <c r="E101" s="64"/>
       <c r="F101" s="64"/>
@@ -4050,8 +4050,8 @@
       <c r="A102" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="106"/>
-      <c r="C102" s="107"/>
+      <c r="B102" s="127"/>
+      <c r="C102" s="128"/>
       <c r="D102" s="64"/>
       <c r="E102" s="64"/>
       <c r="F102" s="64"/>
@@ -4074,8 +4074,8 @@
       <c r="A104" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B104" s="106"/>
-      <c r="C104" s="107"/>
+      <c r="B104" s="127"/>
+      <c r="C104" s="128"/>
       <c r="D104" s="64"/>
       <c r="E104" s="64"/>
       <c r="F104" s="64"/>
@@ -4083,14 +4083,14 @@
       <c r="H104" s="15"/>
     </row>
     <row r="105" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="105" t="s">
+      <c r="A105" s="158" t="s">
         <v>92</v>
       </c>
-      <c r="B105" s="105"/>
-      <c r="C105" s="105"/>
-      <c r="D105" s="105"/>
-      <c r="E105" s="105"/>
-      <c r="F105" s="105"/>
+      <c r="B105" s="158"/>
+      <c r="C105" s="158"/>
+      <c r="D105" s="158"/>
+      <c r="E105" s="158"/>
+      <c r="F105" s="158"/>
       <c r="G105" s="15"/>
       <c r="H105" s="15"/>
     </row>
@@ -4109,20 +4109,20 @@
         <v>93</v>
       </c>
       <c r="B107" s="12"/>
-      <c r="C107" s="145" t="s">
+      <c r="C107" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="D107" s="146"/>
-      <c r="E107" s="146"/>
-      <c r="F107" s="146"/>
-      <c r="G107" s="147"/>
+      <c r="D107" s="125"/>
+      <c r="E107" s="125"/>
+      <c r="F107" s="125"/>
+      <c r="G107" s="126"/>
       <c r="H107" s="15"/>
     </row>
     <row r="108" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="108" t="s">
+      <c r="A108" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="B108" s="109"/>
+      <c r="B108" s="107"/>
       <c r="C108" s="70" t="s">
         <v>13</v>
       </c>
@@ -4141,10 +4141,10 @@
       <c r="H108" s="15"/>
     </row>
     <row r="109" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="108" t="s">
+      <c r="A109" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B109" s="109"/>
+      <c r="B109" s="107"/>
       <c r="C109" s="71"/>
       <c r="D109" s="71"/>
       <c r="E109" s="71"/>
@@ -4153,10 +4153,10 @@
       <c r="H109" s="15"/>
     </row>
     <row r="110" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="108" t="s">
+      <c r="A110" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="109"/>
+      <c r="B110" s="107"/>
       <c r="C110" s="72"/>
       <c r="D110" s="72"/>
       <c r="E110" s="72"/>
@@ -4165,10 +4165,10 @@
       <c r="H110" s="15"/>
     </row>
     <row r="111" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="108" t="s">
+      <c r="A111" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="109"/>
+      <c r="B111" s="107"/>
       <c r="C111" s="72"/>
       <c r="D111" s="72"/>
       <c r="E111" s="72"/>
@@ -4177,10 +4177,10 @@
       <c r="H111" s="15"/>
     </row>
     <row r="112" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="108" t="s">
+      <c r="A112" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="109"/>
+      <c r="B112" s="107"/>
       <c r="C112" s="72"/>
       <c r="D112" s="72"/>
       <c r="E112" s="72"/>
@@ -4189,10 +4189,10 @@
       <c r="H112" s="15"/>
     </row>
     <row r="113" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="108" t="s">
+      <c r="A113" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="B113" s="109"/>
+      <c r="B113" s="107"/>
       <c r="C113" s="72"/>
       <c r="D113" s="72"/>
       <c r="E113" s="72"/>
@@ -4201,15 +4201,15 @@
       <c r="H113" s="15"/>
     </row>
     <row r="114" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="142" t="s">
+      <c r="A114" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="B114" s="142"/>
-      <c r="C114" s="142"/>
-      <c r="D114" s="142"/>
-      <c r="E114" s="142"/>
-      <c r="F114" s="142"/>
-      <c r="G114" s="142"/>
+      <c r="B114" s="121"/>
+      <c r="C114" s="121"/>
+      <c r="D114" s="121"/>
+      <c r="E114" s="121"/>
+      <c r="F114" s="121"/>
+      <c r="G114" s="121"/>
       <c r="H114" s="15"/>
     </row>
     <row r="115" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4263,35 +4263,35 @@
       <c r="H119" s="15"/>
     </row>
     <row r="120" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="104"/>
-      <c r="B120" s="104"/>
-      <c r="C120" s="104"/>
-      <c r="D120" s="104"/>
-      <c r="E120" s="104"/>
-      <c r="F120" s="104"/>
-      <c r="G120" s="104"/>
-      <c r="H120" s="104"/>
+      <c r="A120" s="157"/>
+      <c r="B120" s="157"/>
+      <c r="C120" s="157"/>
+      <c r="D120" s="157"/>
+      <c r="E120" s="157"/>
+      <c r="F120" s="157"/>
+      <c r="G120" s="157"/>
+      <c r="H120" s="157"/>
     </row>
     <row r="121" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="143" t="s">
-        <v>110</v>
-      </c>
-      <c r="B121" s="143"/>
-      <c r="C121" s="143"/>
-      <c r="D121" s="143"/>
-      <c r="E121" s="143"/>
-      <c r="F121" s="143"/>
-      <c r="G121" s="143"/>
+      <c r="A121" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="B121" s="122"/>
+      <c r="C121" s="122"/>
+      <c r="D121" s="122"/>
+      <c r="E121" s="122"/>
+      <c r="F121" s="122"/>
+      <c r="G121" s="122"/>
       <c r="H121" s="73"/>
     </row>
     <row r="122" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="143"/>
-      <c r="B122" s="143"/>
-      <c r="C122" s="143"/>
-      <c r="D122" s="143"/>
-      <c r="E122" s="143"/>
-      <c r="F122" s="143"/>
-      <c r="G122" s="143"/>
+      <c r="A122" s="122"/>
+      <c r="B122" s="122"/>
+      <c r="C122" s="122"/>
+      <c r="D122" s="122"/>
+      <c r="E122" s="122"/>
+      <c r="F122" s="122"/>
+      <c r="G122" s="122"/>
       <c r="H122" s="46"/>
     </row>
     <row r="123" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4308,15 +4308,15 @@
       <c r="K123" s="55"/>
     </row>
     <row r="124" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="158" t="s">
-        <v>115</v>
-      </c>
-      <c r="B124" s="158"/>
-      <c r="C124" s="158"/>
-      <c r="D124" s="158"/>
-      <c r="E124" s="158"/>
-      <c r="F124" s="158"/>
-      <c r="G124" s="158"/>
+      <c r="A124" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124" s="120"/>
+      <c r="C124" s="120"/>
+      <c r="D124" s="120"/>
+      <c r="E124" s="120"/>
+      <c r="F124" s="120"/>
+      <c r="G124" s="120"/>
       <c r="H124" s="57"/>
     </row>
     <row r="125" spans="1:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4535,13 +4535,13 @@
     <row r="134" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="74"/>
       <c r="B134" s="103"/>
-      <c r="C134" s="110" t="s">
+      <c r="C134" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="D134" s="110"/>
-      <c r="E134" s="110"/>
-      <c r="F134" s="110"/>
-      <c r="G134" s="110"/>
+      <c r="D134" s="145"/>
+      <c r="E134" s="145"/>
+      <c r="F134" s="145"/>
+      <c r="G134" s="145"/>
       <c r="H134" s="85"/>
     </row>
     <row r="135" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -4605,13 +4605,13 @@
     <row r="139" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="74"/>
       <c r="B139" s="15"/>
-      <c r="C139" s="111" t="s">
+      <c r="C139" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="D139" s="111"/>
-      <c r="E139" s="111"/>
-      <c r="F139" s="111"/>
-      <c r="G139" s="111"/>
+      <c r="D139" s="146"/>
+      <c r="E139" s="146"/>
+      <c r="F139" s="146"/>
+      <c r="G139" s="146"/>
       <c r="H139" s="15"/>
     </row>
     <row r="140" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
@@ -4673,10 +4673,10 @@
       <c r="H143" s="15"/>
     </row>
     <row r="144" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="116" t="s">
+      <c r="A144" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="B144" s="117"/>
+      <c r="B144" s="152"/>
       <c r="C144" s="81"/>
       <c r="D144" s="81"/>
       <c r="E144" s="81"/>
@@ -4697,13 +4697,13 @@
     <row r="146" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="90"/>
       <c r="B146" s="84"/>
-      <c r="C146" s="112" t="s">
+      <c r="C146" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="D146" s="112"/>
-      <c r="E146" s="112"/>
-      <c r="F146" s="112"/>
-      <c r="G146" s="112"/>
+      <c r="D146" s="147"/>
+      <c r="E146" s="147"/>
+      <c r="F146" s="147"/>
+      <c r="G146" s="147"/>
       <c r="H146" s="15"/>
     </row>
     <row r="147" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -4765,10 +4765,10 @@
       <c r="H150" s="15"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="116" t="s">
+      <c r="A151" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="B151" s="117"/>
+      <c r="B151" s="152"/>
       <c r="C151" s="81"/>
       <c r="D151" s="81"/>
       <c r="E151" s="81"/>
@@ -4789,13 +4789,13 @@
     <row r="153" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="27"/>
       <c r="B153" s="84"/>
-      <c r="C153" s="112" t="s">
+      <c r="C153" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="D153" s="112"/>
-      <c r="E153" s="112"/>
-      <c r="F153" s="112"/>
-      <c r="G153" s="112"/>
+      <c r="D153" s="147"/>
+      <c r="E153" s="147"/>
+      <c r="F153" s="147"/>
+      <c r="G153" s="147"/>
       <c r="H153" s="15"/>
     </row>
     <row r="154" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -4917,10 +4917,10 @@
       <c r="H162" s="15"/>
     </row>
     <row r="163" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="116" t="s">
+      <c r="A163" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="B163" s="117"/>
+      <c r="B163" s="152"/>
       <c r="C163" s="81"/>
       <c r="D163" s="81"/>
       <c r="E163" s="81"/>
@@ -4929,16 +4929,16 @@
       <c r="H163" s="15"/>
     </row>
     <row r="164" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="114" t="s">
+      <c r="A164" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="B164" s="115"/>
-      <c r="C164" s="115"/>
-      <c r="D164" s="115"/>
-      <c r="E164" s="115"/>
-      <c r="F164" s="115"/>
-      <c r="G164" s="115"/>
-      <c r="H164" s="115"/>
+      <c r="B164" s="150"/>
+      <c r="C164" s="150"/>
+      <c r="D164" s="150"/>
+      <c r="E164" s="150"/>
+      <c r="F164" s="150"/>
+      <c r="G164" s="150"/>
+      <c r="H164" s="150"/>
     </row>
     <row r="165" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="15"/>
@@ -5022,27 +5022,27 @@
       <c r="H171" s="15"/>
     </row>
     <row r="172" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="118" t="s">
+      <c r="A172" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="B172" s="119"/>
-      <c r="C172" s="119"/>
-      <c r="D172" s="119"/>
-      <c r="E172" s="119"/>
-      <c r="F172" s="119"/>
-      <c r="G172" s="119"/>
+      <c r="B172" s="154"/>
+      <c r="C172" s="154"/>
+      <c r="D172" s="154"/>
+      <c r="E172" s="154"/>
+      <c r="F172" s="154"/>
+      <c r="G172" s="154"/>
       <c r="H172" s="33"/>
     </row>
     <row r="173" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="156" t="s">
-        <v>114</v>
-      </c>
-      <c r="B173" s="157"/>
-      <c r="C173" s="157"/>
-      <c r="D173" s="157"/>
-      <c r="E173" s="157"/>
-      <c r="F173" s="157"/>
-      <c r="G173" s="157"/>
+      <c r="A173" s="155" t="s">
+        <v>113</v>
+      </c>
+      <c r="B173" s="156"/>
+      <c r="C173" s="156"/>
+      <c r="D173" s="156"/>
+      <c r="E173" s="156"/>
+      <c r="F173" s="156"/>
+      <c r="G173" s="156"/>
       <c r="H173" s="33"/>
     </row>
     <row r="174" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5069,45 +5069,45 @@
       <c r="K175" s="8"/>
     </row>
     <row r="176" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="113"/>
-      <c r="B176" s="113"/>
-      <c r="C176" s="113"/>
-      <c r="D176" s="113"/>
-      <c r="E176" s="113"/>
-      <c r="F176" s="113"/>
-      <c r="G176" s="113"/>
-      <c r="H176" s="113"/>
+      <c r="A176" s="148"/>
+      <c r="B176" s="148"/>
+      <c r="C176" s="148"/>
+      <c r="D176" s="148"/>
+      <c r="E176" s="148"/>
+      <c r="F176" s="148"/>
+      <c r="G176" s="148"/>
+      <c r="H176" s="148"/>
     </row>
     <row r="177" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="151" t="s">
-        <v>109</v>
-      </c>
-      <c r="B177" s="151"/>
-      <c r="C177" s="151"/>
-      <c r="D177" s="151"/>
-      <c r="E177" s="151"/>
-      <c r="F177" s="151"/>
-      <c r="G177" s="151"/>
+      <c r="A177" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B177" s="110"/>
+      <c r="C177" s="110"/>
+      <c r="D177" s="110"/>
+      <c r="E177" s="110"/>
+      <c r="F177" s="110"/>
+      <c r="G177" s="110"/>
       <c r="H177" s="15"/>
     </row>
     <row r="178" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="151"/>
-      <c r="B178" s="151"/>
-      <c r="C178" s="151"/>
-      <c r="D178" s="151"/>
-      <c r="E178" s="151"/>
-      <c r="F178" s="151"/>
-      <c r="G178" s="151"/>
+      <c r="A178" s="110"/>
+      <c r="B178" s="110"/>
+      <c r="C178" s="110"/>
+      <c r="D178" s="110"/>
+      <c r="E178" s="110"/>
+      <c r="F178" s="110"/>
+      <c r="G178" s="110"/>
       <c r="H178" s="15"/>
     </row>
     <row r="179" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="151"/>
-      <c r="B179" s="151"/>
-      <c r="C179" s="151"/>
-      <c r="D179" s="151"/>
-      <c r="E179" s="151"/>
-      <c r="F179" s="151"/>
-      <c r="G179" s="151"/>
+      <c r="A179" s="110"/>
+      <c r="B179" s="110"/>
+      <c r="C179" s="110"/>
+      <c r="D179" s="110"/>
+      <c r="E179" s="110"/>
+      <c r="F179" s="110"/>
+      <c r="G179" s="110"/>
       <c r="H179" s="56"/>
     </row>
     <row r="180" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5133,6 +5133,89 @@
     <row r="182" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A120:H120"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="C153:G153"/>
+    <mergeCell ref="A176:H176"/>
+    <mergeCell ref="A164:H164"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A172:G172"/>
+    <mergeCell ref="A173:G173"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="A121:G122"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="A71:G72"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="A177:G179"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C35:G35"/>
@@ -5149,89 +5232,6 @@
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A177:G179"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="A121:G122"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="A71:G72"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="A87:G87"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="C139:G139"/>
-    <mergeCell ref="C146:G146"/>
-    <mergeCell ref="C153:G153"/>
-    <mergeCell ref="A176:H176"/>
-    <mergeCell ref="A164:H164"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A172:G172"/>
-    <mergeCell ref="A173:G173"/>
-    <mergeCell ref="A120:H120"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1.1811023622047245" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5240,7 +5240,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;6&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;6AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Negrita"&amp;5&amp;K0033CCControl de versiones&amp;"Arial,Normal"&amp;K01+000
-Circular ASFI/476/2017 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
+Circular ASFI/828/2024 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 1°
 Título III
 Capítulo VIII
 Anexo 1
